--- a/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9360"/>
+    <workbookView windowWidth="21000" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="164">
   <si>
     <t>interface_name</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>reference_header</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
   <si>
     <t>登录</t>
@@ -511,9 +514,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -531,11 +534,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,28 +573,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,31 +596,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +619,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -641,6 +644,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,13 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -674,6 +677,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -689,13 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,25 +728,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,31 +800,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,67 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,13 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,15 +871,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,6 +923,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -976,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -1468,9 +1471,10 @@
     <col min="8" max="8" width="18.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="22.325" customWidth="1"/>
     <col min="10" max="10" width="19.0416666666667" customWidth="1"/>
+    <col min="11" max="11" width="18.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,2032 +1508,2035 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
@@ -514,9 +514,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -527,18 +527,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,6 +583,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -578,19 +618,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,30 +641,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -634,16 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,13 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -680,19 +680,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +752,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,67 +806,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +836,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,49 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,6 +871,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -890,6 +923,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -904,59 +952,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,10 +979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,7 +1456,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>

--- a/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
+++ b/test_coding/test_api/api_test_cases/lzsj_api_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="163">
   <si>
     <t>interface_name</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>reference_header</t>
-  </si>
-  <si>
-    <t>cookies</t>
   </si>
   <si>
     <t>登录</t>
@@ -527,9 +524,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,30 +632,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,20 +654,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -612,60 +662,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +689,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +743,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,7 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,13 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,13 +797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,25 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,25 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,34 +871,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -922,17 +901,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,15 +960,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -979,10 +976,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,133 +988,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15.6"/>
@@ -1474,7 +1471,7 @@
     <col min="11" max="11" width="18.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1508,2035 +1505,2032 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
-      </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
-      </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
         <v>80</v>
       </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>81</v>
-      </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
         <v>80</v>
       </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>81</v>
-      </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>86</v>
-      </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>91</v>
-      </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
         <v>99</v>
       </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>100</v>
-      </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
         <v>101</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>104</v>
-      </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>108</v>
-      </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
         <v>109</v>
       </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s">
-        <v>110</v>
-      </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
         <v>113</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
         <v>115</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s">
         <v>116</v>
       </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>117</v>
-      </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s">
         <v>118</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>119</v>
-      </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
         <v>120</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>121</v>
-      </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
         <v>122</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>125</v>
-      </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
         <v>126</v>
       </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
         <v>128</v>
       </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>129</v>
-      </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>131</v>
-      </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
         <v>132</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>133</v>
-      </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" t="s">
         <v>135</v>
       </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>136</v>
-      </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" t="s">
         <v>137</v>
       </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>138</v>
-      </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
         <v>139</v>
       </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>141</v>
       </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" t="s">
-        <v>142</v>
-      </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
         <v>143</v>
       </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>144</v>
-      </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
         <v>145</v>
       </c>
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>146</v>
-      </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
         <v>147</v>
       </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s">
-        <v>148</v>
-      </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
         <v>149</v>
       </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>150</v>
-      </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
         <v>151</v>
       </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>152</v>
-      </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
         <v>153</v>
       </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>154</v>
-      </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
         <v>155</v>
       </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>156</v>
-      </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
         <v>157</v>
       </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>158</v>
-      </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
         <v>160</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>161</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>162</v>
       </c>
-      <c r="F71" t="s">
-        <v>163</v>
-      </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
